--- a/data/trans_bre/P74B-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P74B-Clase-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>56.88721754303521</v>
+        <v>59.40126625546955</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>24.58241751332485</v>
+        <v>24.94665095413623</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>21.82296559290986</v>
+        <v>21.90680163667667</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>5.313599989971168</v>
+        <v>5.358462068603565</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>1.790512212595709</v>
+        <v>1.837000750285723</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.178473428416128</v>
+        <v>1.162940638653885</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>88.80025131351951</v>
+        <v>89.38950123403816</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>59.18195513516311</v>
+        <v>60.66405654546227</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>56.25253354107734</v>
+        <v>54.3428673339872</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>21.67435957861436</v>
+        <v>21.70933324531845</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>10.80774705750123</v>
+        <v>11.00836735600275</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5.495060071496868</v>
+        <v>5.218247364352862</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>37.6873201215214</v>
+        <v>37.40042395494271</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>28.5052202755149</v>
+        <v>25.25605553018618</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10.04214141447574</v>
+        <v>11.0864777897453</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>3.766442676920714</v>
+        <v>4.060454734868611</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.752816826016108</v>
+        <v>1.715273754609438</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5076274851424328</v>
+        <v>0.646871360392358</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>83.18236923946533</v>
+        <v>84.18321057869554</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>60.96967658940969</v>
+        <v>59.19270034027623</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>44.10416655933027</v>
+        <v>45.44543941445104</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>19.7601425233143</v>
+        <v>25.8842147824074</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>7.332932946594508</v>
+        <v>7.131852290389016</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.050883878155528</v>
+        <v>4.286434579217087</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>57.03285882994643</v>
+        <v>56.45210458382331</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>37.42124557503156</v>
+        <v>36.68958819288289</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>38.38495137007317</v>
+        <v>39.19881367762477</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>9.929611991961233</v>
+        <v>10.5048652269197</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>2.409586199222041</v>
+        <v>2.327693813715804</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>2.607174949411441</v>
+        <v>2.636665629973345</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>87.04855754880619</v>
+        <v>87.55293797740448</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>62.90860290285749</v>
+        <v>62.52083187954202</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>68.01633440078379</v>
+        <v>68.23607160906641</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>35.19072669418856</v>
+        <v>38.11095190992316</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>6.401613637299997</v>
+        <v>5.994174413973541</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>6.752773262065983</v>
+        <v>6.653745320314663</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>57.99351188668951</v>
+        <v>57.74327830955745</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>29.4651004502449</v>
+        <v>27.83217559234114</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>34.54503088074194</v>
+        <v>35.09632088507627</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5.405337466775359</v>
+        <v>5.337861823720942</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2.030797003081562</v>
+        <v>2.058819826454188</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2.755640360904941</v>
+        <v>2.907274943451439</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>74.24373715801769</v>
+        <v>74.6920354196112</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>46.18213491413096</v>
+        <v>45.566714479904</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>51.21135004428409</v>
+        <v>52.04277236166381</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9.957359809113999</v>
+        <v>9.714622090923433</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.531242975981719</v>
+        <v>4.60866230355245</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5.630026853272757</v>
+        <v>5.862542601034636</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>56.13161150476864</v>
+        <v>56.75556247879593</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>34.56475865793608</v>
+        <v>34.78400989077584</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29.44658198769464</v>
+        <v>29.18083059936592</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>4.497319878006073</v>
+        <v>4.375268994117935</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>1.583522707843467</v>
+        <v>1.550730131122599</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.654795306182894</v>
+        <v>1.645329481770212</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>75.80886932557848</v>
+        <v>76.04133663753399</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>50.4939195337058</v>
+        <v>51.29333106408009</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>45.54830886661791</v>
+        <v>45.96110998648237</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>17.1736229361589</v>
+        <v>15.52735500231353</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3.850241254783909</v>
+        <v>4.019649553292439</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4.258648393831209</v>
+        <v>4.56229621103017</v>
       </c>
     </row>
     <row r="19">
@@ -1052,14 +1052,14 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-15.28990896267524</v>
+        <v>-14.96682113115403</v>
       </c>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="n">
-        <v>80.29236532505794</v>
+        <v>81.02279341622133</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1528990896267524</v>
+        <v>-0.1496682113115403</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
@@ -1072,14 +1072,14 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-7.982953809639593</v>
+        <v>-7.762188331515445</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>88.50593792566372</v>
+        <v>88.71128566703474</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.07982953809639592</v>
+        <v>-0.07762188331515445</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
@@ -1122,22 +1122,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>71.98439940934249</v>
+        <v>71.9866524448657</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>51.65677079083387</v>
+        <v>51.28916661702979</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>49.9177692394886</v>
+        <v>49.70113961570124</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>8.200881404384948</v>
+        <v>8.276267309003966</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>3.614942016314933</v>
+        <v>3.60401208248189</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>3.52536499555409</v>
+        <v>3.52481182083954</v>
       </c>
     </row>
     <row r="24">
@@ -1148,22 +1148,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>78.8271654484012</v>
+        <v>78.48238580804653</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>59.24860034733454</v>
+        <v>59.05091705737796</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>57.17265714744732</v>
+        <v>56.95883234197478</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>12.45415873349311</v>
+        <v>12.55236665072795</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>5.366379844463636</v>
+        <v>5.405776730821377</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>5.204206458130944</v>
+        <v>5.229393958060661</v>
       </c>
     </row>
     <row r="25">
